--- a/data/trans_bre/P44-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P44-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 23,08</t>
+          <t>-2,03; 23,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 1,51</t>
+          <t>-17,51; 0,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -0,13</t>
+          <t>-18,75; -2,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 232,27</t>
+          <t>-18,01; 234,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,79; 15,37</t>
+          <t>-78,35; 5,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,58; -0,36</t>
+          <t>-32,36; -4,97</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 12,17</t>
+          <t>-7,76; 12,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,41; -5,44</t>
+          <t>-21,77; -5,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 5,35</t>
+          <t>-11,61; 6,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,9; 182,44</t>
+          <t>-55,85; 167,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-89,87; -26,26</t>
+          <t>-89,31; -30,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 16,01</t>
+          <t>-27,75; 18,45</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 6,16</t>
+          <t>-8,62; 6,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 6,39</t>
+          <t>-8,21; 6,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-62,6; -3,01</t>
+          <t>-65,67; -4,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-63,01; 85,48</t>
+          <t>-65,2; 87,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,37; 69,71</t>
+          <t>-65,81; 76,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,81; -9,58</t>
+          <t>-73,53; -13,9</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 4,43</t>
+          <t>-4,77; 4,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,57</t>
+          <t>-4,55; 4,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,15; -1,43</t>
+          <t>-26,6; -0,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,37; 64,21</t>
+          <t>-48,74; 72,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 54,04</t>
+          <t>-43,37; 53,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,98; -4,26</t>
+          <t>-81,89; -3,16</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 6,68</t>
+          <t>-1,84; 7,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 3,01</t>
+          <t>-5,8; 3,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 3,59</t>
+          <t>-8,39; 4,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 240,65</t>
+          <t>-28,95; 321,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-51,02; 46,36</t>
+          <t>-51,4; 50,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,28; 14,82</t>
+          <t>-25,64; 17,8</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,97</t>
+          <t>3,7; 7,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,31</t>
+          <t>4,31; 8,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 14,63</t>
+          <t>-34,41; 14,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,78; 109,51</t>
+          <t>-56,64; 105,63</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,29</t>
+          <t>-4,5; 0,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -2,28</t>
+          <t>-6,65; -2,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,52; -8,17</t>
+          <t>-44,2; -8,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 2,86</t>
+          <t>-40,42; 1,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-52,03; -20,58</t>
+          <t>-51,61; -20,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-68,68; -22,24</t>
+          <t>-71,7; -21,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P44-Clase-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
